--- a/FemiHealthArabForum/JsonData/AttendeesExcel.xlsx
+++ b/FemiHealthArabForum/JsonData/AttendeesExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -33,13 +33,52 @@
     <t>PC1-2</t>
   </si>
   <si>
-    <t>sara</t>
-  </si>
-  <si>
-    <t>sara@gmail.com</t>
-  </si>
-  <si>
-    <t>010009983</t>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>ahmad97.khaled@gmail.com</t>
+  </si>
+  <si>
+    <t>01097738472</t>
+  </si>
+  <si>
+    <t>PC1-3</t>
+  </si>
+  <si>
+    <t>Ahmed خالد فهمى</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>PC1-4</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>PC1-5</t>
+  </si>
+  <si>
+    <t>omar el aragoz</t>
+  </si>
+  <si>
+    <t>omar@hh.com</t>
+  </si>
+  <si>
+    <t>010093048293</t>
+  </si>
+  <si>
+    <t>PC1-6</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>om@jnsdj.com</t>
+  </si>
+  <si>
+    <t>01090998989</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -500,8 +539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1bc64876-9718-48db-894b-a3e90affd0ee}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b2c6132-2944-47fb-aee2-9ba72d127b37}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -535,6 +574,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="12.75">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -542,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16fd8076-629c-4cbf-be5e-4054d5baf92b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f20f4618-058a-4e48-a59c-d944b003aa5d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -551,7 +646,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
